--- a/excel_files/피앤.xlsx
+++ b/excel_files/피앤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - GIST\바탕 화면\mintProject\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE2D67A-466F-4531-B309-8B18A752987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298662BF-8D96-40EF-AE54-4108D82DEFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="63">
   <si>
     <t>기관명</t>
   </si>
@@ -192,12 +192,44 @@
 3등급 보행재활로봇에 건강보험이 적용되는 점, 2025년 이후 상지재활로봇 및 유아/소아용 보행재활로봇 신제품 출시 예정인 점, 특례상장기업이나 당기순이익을 시현하고 있는 점 등은 긍정적이나, 상장 당일 유통가능한 지분 규모(39.2%, 상단 431억원, 기존주주 18.32%)는 부정적임.
 컨센서스 : 밴드 상단 초과 / 최대 참여 / 미확약</t>
   </si>
+  <si>
+    <t>가나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대참여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +285,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -408,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -481,6 +521,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -795,7 +838,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,8 +857,8 @@
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
+      <c r="B1" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>2</v>
@@ -847,26 +890,24 @@
         <v>22000</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="28">
         <v>-4204147973</v>
       </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
+      <c r="A3" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="2">
         <v>22000</v>
@@ -877,17 +918,15 @@
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="6">
-        <v>-4204147973</v>
-      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2">
         <v>22000</v>
@@ -898,17 +937,17 @@
       <c r="D4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="6">
-        <v>-4204147973</v>
+        <v>-4277350865</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>15</v>
+      <c r="A5" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="2">
         <v>22000</v>
@@ -919,9 +958,9 @@
       <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="6">
-        <v>-4277350865</v>
+        <v>-4270181716</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="6"/>
@@ -929,7 +968,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2">
         <v>22000</v>
@@ -940,10 +979,8 @@
       <c r="D6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="6">
-        <v>-4270181716</v>
-      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
@@ -951,8 +988,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
+      <c r="A7" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>22000</v>
@@ -963,17 +1000,19 @@
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="6">
         <v>-4239790177</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
+      <c r="A8" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="2">
         <v>22000</v>
@@ -984,9 +1023,9 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="6">
-        <v>-4182038834</v>
+        <v>-4209384439</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
@@ -1005,7 +1044,7 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="6"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
@@ -1024,7 +1063,7 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6"/>
@@ -1043,7 +1082,7 @@
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
@@ -1062,7 +1101,7 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6"/>
@@ -1081,7 +1120,7 @@
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
@@ -1100,7 +1139,7 @@
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
@@ -1119,7 +1158,7 @@
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
@@ -1138,7 +1177,7 @@
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
       <c r="H16" s="6"/>
@@ -1157,7 +1196,7 @@
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
@@ -1176,7 +1215,7 @@
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6"/>
@@ -1195,7 +1234,7 @@
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6"/>
@@ -1214,7 +1253,7 @@
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
@@ -1233,7 +1272,7 @@
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6"/>
@@ -1252,7 +1291,7 @@
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
       <c r="H22" s="6"/>
@@ -1271,7 +1310,7 @@
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
@@ -1290,7 +1329,7 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6"/>
@@ -1309,7 +1348,7 @@
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
       <c r="H25" s="6"/>
@@ -1328,7 +1367,7 @@
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="6"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6"/>
@@ -1347,7 +1386,7 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6"/>
@@ -1366,7 +1405,7 @@
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="6"/>
       <c r="G28" s="3"/>
       <c r="H28" s="6"/>
@@ -1385,7 +1424,7 @@
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="6"/>
       <c r="G29" s="3"/>
       <c r="H29" s="6"/>
@@ -1404,7 +1443,7 @@
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6"/>
@@ -1423,7 +1462,7 @@
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="6"/>
       <c r="G31" s="3"/>
       <c r="H31" s="6"/>
@@ -1442,7 +1481,7 @@
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="6"/>
       <c r="G32" s="3"/>
       <c r="H32" s="6"/>
@@ -1461,7 +1500,7 @@
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="6"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6"/>
@@ -1480,7 +1519,7 @@
       <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="6"/>
       <c r="G34" s="3"/>
       <c r="H34" s="6"/>
@@ -1499,7 +1538,7 @@
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="30"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="6"/>
       <c r="G35" s="3"/>
       <c r="H35" s="6"/>
@@ -1518,7 +1557,7 @@
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="30"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="6"/>
       <c r="G36" s="3"/>
       <c r="H36" s="6"/>
@@ -1537,7 +1576,7 @@
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="30"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="6"/>
       <c r="G37" s="3"/>
       <c r="H37" s="6"/>
@@ -1556,7 +1595,7 @@
       <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6"/>
       <c r="G38" s="3"/>
       <c r="H38" s="6"/>
@@ -1575,7 +1614,7 @@
       <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="6"/>
       <c r="G39" s="3"/>
       <c r="H39" s="6"/>
@@ -1594,14 +1633,14 @@
       <c r="D40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="6"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E41" s="31"/>
+      <c r="E41" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1679,7 +1718,7 @@
       <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="8">
@@ -1704,7 +1743,7 @@
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="3">
         <v>-4277350865</v>
       </c>
@@ -1727,7 +1766,7 @@
       <c r="D4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="3">
         <v>-4270181716</v>
       </c>
@@ -1750,7 +1789,7 @@
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="6"/>
       <c r="G5" s="3"/>
       <c r="H5" s="6"/>
@@ -1769,7 +1808,7 @@
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6"/>
@@ -1788,7 +1827,7 @@
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="6"/>
       <c r="G7" s="3"/>
       <c r="H7" s="6"/>
@@ -1807,7 +1846,7 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="6"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
@@ -1826,7 +1865,7 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="6"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
@@ -1845,7 +1884,7 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6"/>
@@ -1864,7 +1903,7 @@
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
@@ -1883,7 +1922,7 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6"/>
@@ -1902,7 +1941,7 @@
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
@@ -1921,7 +1960,7 @@
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
@@ -1940,7 +1979,7 @@
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
@@ -1959,7 +1998,7 @@
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
       <c r="H16" s="6"/>
@@ -1978,7 +2017,7 @@
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
@@ -1997,7 +2036,7 @@
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6"/>
@@ -2016,7 +2055,7 @@
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6"/>
@@ -2035,7 +2074,7 @@
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
@@ -2054,7 +2093,7 @@
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6"/>
@@ -2073,7 +2112,7 @@
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
       <c r="H22" s="6"/>
@@ -2092,7 +2131,7 @@
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
@@ -2111,7 +2150,7 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6"/>
@@ -2130,7 +2169,7 @@
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
       <c r="H25" s="6"/>
@@ -2149,7 +2188,7 @@
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="6"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6"/>
@@ -2168,7 +2207,7 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6"/>
@@ -2187,7 +2226,7 @@
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="6"/>
       <c r="G28" s="3"/>
       <c r="H28" s="6"/>
@@ -2206,7 +2245,7 @@
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="6"/>
       <c r="G29" s="3"/>
       <c r="H29" s="6"/>
@@ -2225,7 +2264,7 @@
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6"/>
@@ -2244,7 +2283,7 @@
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="6"/>
       <c r="G31" s="3"/>
       <c r="H31" s="6"/>
@@ -2263,7 +2302,7 @@
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="6"/>
       <c r="G32" s="3"/>
       <c r="H32" s="6"/>
@@ -2282,7 +2321,7 @@
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="6"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6"/>
@@ -2301,7 +2340,7 @@
       <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="6"/>
       <c r="G34" s="3"/>
       <c r="H34" s="6"/>
@@ -2320,7 +2359,7 @@
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="30"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="6"/>
       <c r="G35" s="3"/>
       <c r="H35" s="6"/>
@@ -2339,7 +2378,7 @@
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="30"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="6"/>
       <c r="G36" s="3"/>
       <c r="H36" s="6"/>
@@ -2358,7 +2397,7 @@
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="30"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="6"/>
       <c r="G37" s="3"/>
       <c r="H37" s="6"/>
@@ -2377,7 +2416,7 @@
       <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6"/>
       <c r="G38" s="3"/>
       <c r="H38" s="6"/>
@@ -2396,7 +2435,7 @@
       <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="6"/>
       <c r="G39" s="3"/>
       <c r="H39" s="6"/>
@@ -2415,14 +2454,14 @@
       <c r="D40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="6"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="31"/>
+      <c r="E41" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
